--- a/Phenoloxidase Activity data/11. AEG 11 (91143).xlsx
+++ b/Phenoloxidase Activity data/11. AEG 11 (91143).xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blank " sheetId="4" r:id="rId1"/>
-    <sheet name="1 " sheetId="7" r:id="rId2"/>
+    <sheet name="1" sheetId="8" r:id="rId2"/>
     <sheet name="Phenol oxidase activity" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Sample - Blank</t>
   </si>
@@ -94,7 +97,7 @@
     <t>AEG - 11</t>
   </si>
   <si>
-    <t>Sample 91143</t>
+    <t>Sample 91153</t>
   </si>
 </sst>
 </file>
@@ -416,11 +419,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="306819664"/>
-        <c:axId val="306820840"/>
+        <c:axId val="310109008"/>
+        <c:axId val="310112928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="306819664"/>
+        <c:axId val="310109008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -477,12 +480,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306820840"/>
+        <c:crossAx val="310112928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="306820840"/>
+        <c:axId val="310112928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -539,7 +542,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306819664"/>
+        <c:crossAx val="310109008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -808,11 +811,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="311104080"/>
-        <c:axId val="311098592"/>
+        <c:axId val="310113712"/>
+        <c:axId val="310114104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="311104080"/>
+        <c:axId val="310113712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -869,12 +872,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311098592"/>
+        <c:crossAx val="310114104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="311098592"/>
+        <c:axId val="310114104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -931,7 +934,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311104080"/>
+        <c:crossAx val="310113712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1200,11 +1203,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="311098200"/>
-        <c:axId val="311100944"/>
+        <c:axId val="310109400"/>
+        <c:axId val="310112144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="311098200"/>
+        <c:axId val="310109400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,12 +1264,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311100944"/>
+        <c:crossAx val="310112144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="311100944"/>
+        <c:axId val="310112144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1323,7 +1326,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311098200"/>
+        <c:crossAx val="310109400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1387,6 +1390,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1463,8 +1467,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.17371587926509185"/>
-                  <c:y val="9.2045785943423739E-4"/>
+                  <c:x val="-0.42894203849518808"/>
+                  <c:y val="0.20791666666666667"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1499,7 +1503,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$4:$N$14</c:f>
+              <c:f>'1'!$N$4:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1541,42 +1545,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$4:$O$14</c:f>
+              <c:f>'1'!$O$4:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.12266675631205248</c:v>
+                  <c:v>1.1699999570846558</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.5666696230570549E-2</c:v>
+                  <c:v>1.1930999755859375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7.1299990018208748E-2</c:v>
+                  <c:v>1.2043000459671021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.590001742045092E-2</c:v>
+                  <c:v>1.2177000045776367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.4666617711385017E-2</c:v>
+                  <c:v>1.2351000308990479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.4400005340576172E-2</c:v>
+                  <c:v>1.2512999773025513</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.799962043762207E-3</c:v>
+                  <c:v>1.2669999599456787</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0066649119059319E-2</c:v>
+                  <c:v>1.2908999919891357</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2533388137817383E-2</c:v>
+                  <c:v>1.3113000392913818</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.1466684341430664E-2</c:v>
+                  <c:v>1.3306000232696533</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.1233293215433831E-2</c:v>
+                  <c:v>1.3495999574661255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1591,11 +1595,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="453657696"/>
-        <c:axId val="453658088"/>
+        <c:axId val="376706880"/>
+        <c:axId val="376710016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="453657696"/>
+        <c:axId val="376706880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1652,12 +1656,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453658088"/>
+        <c:crossAx val="376710016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453658088"/>
+        <c:axId val="376710016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,7 +1718,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453657696"/>
+        <c:crossAx val="376706880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1778,6 +1782,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1854,8 +1859,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.36816032370953633"/>
-                  <c:y val="0.12025189559638379"/>
+                  <c:x val="-0.40860476815398078"/>
+                  <c:y val="0.17087962962962963"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1890,7 +1895,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$19:$N$29</c:f>
+              <c:f>'1'!$N$19:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1932,42 +1937,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$19:$O$29</c:f>
+              <c:f>'1'!$O$19:$O$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.14796666304270434</c:v>
+                  <c:v>1.1447000503540039</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.11586670080820727</c:v>
+                  <c:v>1.1628999710083008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.7400029500325447E-2</c:v>
+                  <c:v>1.1782000064849854</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.3400050799051995E-2</c:v>
+                  <c:v>1.1901999711990356</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.4166634877522712E-2</c:v>
+                  <c:v>1.2156000137329102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.3100018501281738E-2</c:v>
+                  <c:v>1.2425999641418457</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5000572204589844E-3</c:v>
+                  <c:v>1.2647000551223755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7166644732157463E-2</c:v>
+                  <c:v>1.2879999876022339</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2933335304260254E-2</c:v>
+                  <c:v>1.3116999864578247</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.6866626739501953E-2</c:v>
+                  <c:v>1.3359999656677246</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.8533312479655022E-2</c:v>
+                  <c:v>1.3568999767303467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1982,11 +1987,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="453662792"/>
-        <c:axId val="453661224"/>
+        <c:axId val="376707664"/>
+        <c:axId val="376710408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="453662792"/>
+        <c:axId val="376707664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2043,12 +2048,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453661224"/>
+        <c:crossAx val="376710408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453661224"/>
+        <c:axId val="376710408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,7 +2110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453662792"/>
+        <c:crossAx val="376707664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2169,6 +2174,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2245,8 +2251,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.30924365704286966"/>
-                  <c:y val="3.2376786235053953E-2"/>
+                  <c:x val="-0.44871587926509188"/>
+                  <c:y val="0.23767862350539515"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2281,7 +2287,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$35:$N$45</c:f>
+              <c:f>'1'!$N$35:$N$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2323,42 +2329,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$35:$O$45</c:f>
+              <c:f>'1'!$O$35:$O$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.11666671435038256</c:v>
+                  <c:v>1.1759999990463257</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.4366728464762444E-2</c:v>
+                  <c:v>1.2043999433517456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.0200074513753181E-2</c:v>
+                  <c:v>1.2353999614715576</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.5399972597758049E-2</c:v>
+                  <c:v>1.2582000494003296</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8533388773600334E-2</c:v>
+                  <c:v>1.2883000373840332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7100067138671875E-2</c:v>
+                  <c:v>1.3128000497817993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9399943351745605E-2</c:v>
+                  <c:v>1.3415999412536621</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10676662127176928</c:v>
+                  <c:v>1.3675999641418457</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13463330268859863</c:v>
+                  <c:v>1.3933999538421631</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15526664257049561</c:v>
+                  <c:v>1.4143999814987183</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18163339296976733</c:v>
+                  <c:v>1.440000057220459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2373,11 +2379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307119600"/>
-        <c:axId val="307122736"/>
+        <c:axId val="376714720"/>
+        <c:axId val="376708840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307119600"/>
+        <c:axId val="376714720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2434,12 +2440,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307122736"/>
+        <c:crossAx val="376708840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307122736"/>
+        <c:axId val="376708840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,7 +2502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307119600"/>
+        <c:crossAx val="376714720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2560,6 +2566,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2636,8 +2643,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.32371587926509188"/>
-                  <c:y val="8.7546296296296303E-2"/>
+                  <c:x val="-0.28727537182852142"/>
+                  <c:y val="3.1990740740740743E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2672,7 +2679,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$51:$N$61</c:f>
+              <c:f>'1'!$N$51:$N$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2714,42 +2721,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$51:$O$61</c:f>
+              <c:f>'1'!$O$51:$O$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.17256669203440356</c:v>
+                  <c:v>1.1201000213623047</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.1378666559855144</c:v>
+                  <c:v>1.1409000158309937</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.12570007642110181</c:v>
+                  <c:v>1.149899959564209</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.10010008017222094</c:v>
+                  <c:v>1.1734999418258667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.6266616185506111E-2</c:v>
+                  <c:v>1.2035000324249268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.6700000762939453E-2</c:v>
+                  <c:v>1.218999981880188</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.0599961280822754E-2</c:v>
+                  <c:v>1.2416000366210937</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7666489283244555E-3</c:v>
+                  <c:v>1.2635999917984009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4333357810974121E-2</c:v>
+                  <c:v>1.2831000089645386</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2266607284545898E-2</c:v>
+                  <c:v>1.3013999462127686</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0733358065287346E-2</c:v>
+                  <c:v>1.319100022315979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2764,11 +2771,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="252879904"/>
-        <c:axId val="252877160"/>
+        <c:axId val="376708056"/>
+        <c:axId val="376708448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="252879904"/>
+        <c:axId val="376708056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2825,12 +2832,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252877160"/>
+        <c:crossAx val="376708448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="252877160"/>
+        <c:axId val="376708448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2887,7 +2894,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252879904"/>
+        <c:crossAx val="376708056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2951,6 +2958,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3027,8 +3035,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.14871587926509186"/>
-                  <c:y val="-4.1666666666666669E-4"/>
+                  <c:x val="-0.33204921259842518"/>
+                  <c:y val="0.12655584718576846"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3063,7 +3071,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$68:$N$78</c:f>
+              <c:f>'1'!$N$68:$N$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3105,42 +3113,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$68:$O$78</c:f>
+              <c:f>'1'!$O$68:$O$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-8.9166680971781487E-2</c:v>
+                  <c:v>1.2035000324249268</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.1666666666666741E-2</c:v>
+                  <c:v>1.2371000051498413</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.2800038655598884E-2</c:v>
+                  <c:v>1.2427999973297119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.6799966494242424E-2</c:v>
+                  <c:v>1.2568000555038452</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1633316675822014E-2</c:v>
+                  <c:v>1.2813999652862549</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1200051307678223E-2</c:v>
+                  <c:v>1.2969000339508057</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4600000381469727E-2</c:v>
+                  <c:v>1.3167999982833862</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8766624132792229E-2</c:v>
+                  <c:v>1.3395999670028687</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.8533391952514648E-2</c:v>
+                  <c:v>1.3573000431060791</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11716663837432861</c:v>
+                  <c:v>1.3762999773025513</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13483337561289477</c:v>
+                  <c:v>1.3932000398635864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3155,11 +3163,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307417552"/>
-        <c:axId val="729786160"/>
+        <c:axId val="376710800"/>
+        <c:axId val="376711192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307417552"/>
+        <c:axId val="376710800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3216,12 +3224,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="729786160"/>
+        <c:crossAx val="376711192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="729786160"/>
+        <c:axId val="376711192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3278,7 +3286,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307417552"/>
+        <c:crossAx val="376710800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3342,6 +3350,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3418,8 +3427,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.22927143482064741"/>
-                  <c:y val="4.8599810440361622E-2"/>
+                  <c:x val="-0.34535476815398075"/>
+                  <c:y val="0.21254629629629629"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3454,7 +3463,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$85:$N$95</c:f>
+              <c:f>'1'!$N$85:$N$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3496,42 +3505,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$85:$O$95</c:f>
+              <c:f>'1'!$O$85:$O$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-3.4266750017801995E-2</c:v>
+                  <c:v>1.2583999633789062</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.7666699091594165E-3</c:v>
+                  <c:v>1.2730000019073486</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.700071652730232E-3</c:v>
+                  <c:v>1.2698999643325806</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.3000051180521721E-2</c:v>
+                  <c:v>1.2605999708175659</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.3166607220967537E-2</c:v>
+                  <c:v>1.2366000413894653</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7.599949836730957E-3</c:v>
+                  <c:v>1.2581000328063965</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7600030899047852E-2</c:v>
+                  <c:v>1.3098000288009644</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6966673533121819E-2</c:v>
+                  <c:v>1.3478000164031982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12053334712982178</c:v>
+                  <c:v>1.3792999982833862</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14786660671234131</c:v>
+                  <c:v>1.406999945640564</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.17353336016337084</c:v>
+                  <c:v>1.4319000244140625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3546,11 +3555,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="729785376"/>
-        <c:axId val="729781064"/>
+        <c:axId val="376711976"/>
+        <c:axId val="376712368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="729785376"/>
+        <c:axId val="376711976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3607,12 +3616,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="729781064"/>
+        <c:crossAx val="376712368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="729781064"/>
+        <c:axId val="376712368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3669,7 +3678,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="729785376"/>
+        <c:crossAx val="376711976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9020,6 +9029,558 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Blank "/>
+      <sheetName val="0"/>
+      <sheetName val="1"/>
+      <sheetName val="2"/>
+      <sheetName val="3"/>
+      <sheetName val="Phenol oxidase activity"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="N4">
+            <v>0</v>
+          </cell>
+          <cell r="O4">
+            <v>1.4206000566482544</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>3</v>
+          </cell>
+          <cell r="O5">
+            <v>1.4632999897003174</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>6</v>
+          </cell>
+          <cell r="O6">
+            <v>1.4937000274658203</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="N7">
+            <v>9</v>
+          </cell>
+          <cell r="O7">
+            <v>1.5225000381469727</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="N8">
+            <v>12</v>
+          </cell>
+          <cell r="O8">
+            <v>1.5699000358581543</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="N9">
+            <v>15</v>
+          </cell>
+          <cell r="O9">
+            <v>1.6111999750137329</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="N10">
+            <v>18</v>
+          </cell>
+          <cell r="O10">
+            <v>1.649399995803833</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="N11">
+            <v>21</v>
+          </cell>
+          <cell r="O11">
+            <v>1.6750999689102173</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="N12">
+            <v>24</v>
+          </cell>
+          <cell r="O12">
+            <v>1.6993999481201172</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="N13">
+            <v>27</v>
+          </cell>
+          <cell r="O13">
+            <v>1.7266999483108521</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="N14">
+            <v>30</v>
+          </cell>
+          <cell r="O14">
+            <v>1.7548999786376953</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="N19">
+            <v>0</v>
+          </cell>
+          <cell r="O19">
+            <v>1.9702999591827393</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="N20">
+            <v>3</v>
+          </cell>
+          <cell r="O20">
+            <v>1.9997999668121338</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="N21">
+            <v>6</v>
+          </cell>
+          <cell r="O21">
+            <v>2.0352001190185547</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="N22">
+            <v>9</v>
+          </cell>
+          <cell r="O22">
+            <v>2.0601999759674072</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="N23">
+            <v>12</v>
+          </cell>
+          <cell r="O23">
+            <v>2.0964999198913574</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="N24">
+            <v>15</v>
+          </cell>
+          <cell r="O24">
+            <v>2.1254000663757324</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="N25">
+            <v>18</v>
+          </cell>
+          <cell r="O25">
+            <v>2.1507000923156738</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="N26">
+            <v>21</v>
+          </cell>
+          <cell r="O26">
+            <v>2.152400016784668</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="N27">
+            <v>24</v>
+          </cell>
+          <cell r="O27">
+            <v>2.1628000736236572</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="N28">
+            <v>27</v>
+          </cell>
+          <cell r="O28">
+            <v>2.1719000339508057</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="N29">
+            <v>30</v>
+          </cell>
+          <cell r="O29">
+            <v>2.1888999938964844</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="N35">
+            <v>0</v>
+          </cell>
+          <cell r="O35">
+            <v>1.7063000202178955</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="N36">
+            <v>3</v>
+          </cell>
+          <cell r="O36">
+            <v>1.7470999956130981</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="N37">
+            <v>6</v>
+          </cell>
+          <cell r="O37">
+            <v>1.8051999807357788</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="N38">
+            <v>9</v>
+          </cell>
+          <cell r="O38">
+            <v>1.8631999492645264</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="N39">
+            <v>12</v>
+          </cell>
+          <cell r="O39">
+            <v>1.9196000099182129</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="N40">
+            <v>15</v>
+          </cell>
+          <cell r="O40">
+            <v>1.9716999530792236</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="N41">
+            <v>18</v>
+          </cell>
+          <cell r="O41">
+            <v>2.0302000045776367</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="N42">
+            <v>21</v>
+          </cell>
+          <cell r="O42">
+            <v>2.072700023651123</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="N43">
+            <v>24</v>
+          </cell>
+          <cell r="O43">
+            <v>2.1182999610900879</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="N44">
+            <v>27</v>
+          </cell>
+          <cell r="O44">
+            <v>2.1515998840332031</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="N45">
+            <v>30</v>
+          </cell>
+          <cell r="O45">
+            <v>2.1879000663757324</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="N51">
+            <v>0</v>
+          </cell>
+          <cell r="O51">
+            <v>1.684499979019165</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="N52">
+            <v>3</v>
+          </cell>
+          <cell r="O52">
+            <v>1.7110999822616577</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="N53">
+            <v>6</v>
+          </cell>
+          <cell r="O53">
+            <v>1.7451000213623047</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="N54">
+            <v>9</v>
+          </cell>
+          <cell r="O54">
+            <v>1.7877000570297241</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="N55">
+            <v>12</v>
+          </cell>
+          <cell r="O55">
+            <v>1.8224999904632568</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="N56">
+            <v>15</v>
+          </cell>
+          <cell r="O56">
+            <v>1.8592000007629395</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="N57">
+            <v>18</v>
+          </cell>
+          <cell r="O57">
+            <v>1.8940999507904053</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="N58">
+            <v>21</v>
+          </cell>
+          <cell r="O58">
+            <v>1.9042999744415283</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="N59">
+            <v>24</v>
+          </cell>
+          <cell r="O59">
+            <v>1.9212000370025635</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="N60">
+            <v>27</v>
+          </cell>
+          <cell r="O60">
+            <v>1.9298000335693359</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="N61">
+            <v>30</v>
+          </cell>
+          <cell r="O61">
+            <v>1.9448000192642212</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="N68">
+            <v>0</v>
+          </cell>
+          <cell r="O68">
+            <v>1.8969000577926636</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="N69">
+            <v>3</v>
+          </cell>
+          <cell r="O69">
+            <v>1.9462000131607056</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="N70">
+            <v>6</v>
+          </cell>
+          <cell r="O70">
+            <v>1.9866000413894653</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="N71">
+            <v>9</v>
+          </cell>
+          <cell r="O71">
+            <v>2.0344998836517334</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="N72">
+            <v>12</v>
+          </cell>
+          <cell r="O72">
+            <v>2.0998001098632813</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="N73">
+            <v>15</v>
+          </cell>
+          <cell r="O73">
+            <v>2.1463000774383545</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="N74">
+            <v>18</v>
+          </cell>
+          <cell r="O74">
+            <v>2.1805000305175781</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="N75">
+            <v>21</v>
+          </cell>
+          <cell r="O75">
+            <v>2.2018001079559326</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="N76">
+            <v>24</v>
+          </cell>
+          <cell r="O76">
+            <v>2.2223000526428223</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="N77">
+            <v>27</v>
+          </cell>
+          <cell r="O77">
+            <v>2.2181000709533691</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="N78">
+            <v>30</v>
+          </cell>
+          <cell r="O78">
+            <v>2.2227001190185547</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="N85">
+            <v>0</v>
+          </cell>
+          <cell r="O85">
+            <v>1.4320000410079956</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="N86">
+            <v>3</v>
+          </cell>
+          <cell r="O86">
+            <v>1.4503999948501587</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="N87">
+            <v>6</v>
+          </cell>
+          <cell r="O87">
+            <v>1.4936000108718872</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="N88">
+            <v>9</v>
+          </cell>
+          <cell r="O88">
+            <v>1.5404000282287598</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="N89">
+            <v>12</v>
+          </cell>
+          <cell r="O89">
+            <v>1.6124999523162842</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="N90">
+            <v>15</v>
+          </cell>
+          <cell r="O90">
+            <v>1.6718000173568726</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="N91">
+            <v>18</v>
+          </cell>
+          <cell r="O91">
+            <v>1.7129000425338745</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="N92">
+            <v>21</v>
+          </cell>
+          <cell r="O92">
+            <v>1.7444000244140625</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="N93">
+            <v>24</v>
+          </cell>
+          <cell r="O93">
+            <v>1.7496999502182007</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="N94">
+            <v>27</v>
+          </cell>
+          <cell r="O94">
+            <v>1.7117999792098999</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="N95">
+            <v>30</v>
+          </cell>
+          <cell r="O95">
+            <v>1.6742000579833984</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9285,7 +9846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -9638,8 +10199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O95"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9653,7 +10214,7 @@
         <v>22</v>
       </c>
       <c r="N3" s="2">
-        <v>91143</v>
+        <v>91153</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -9697,194 +10258,91 @@
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>-0.12266675631205248</v>
+        <f>B6</f>
+        <v>1.1699999570846558</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.3114000558853149</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.3137999773025513</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.3127000331878662</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.3114000558853149</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.3087999820709229</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.3056999444961548</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.3023999929428101</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1.3012000322341919</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.2990000247955322</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1.3001999855041504</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1.2967000007629395</v>
-      </c>
       <c r="N5" s="2">
         <v>3</v>
       </c>
       <c r="O5" s="2">
-        <v>-8.5666696230570549E-2</v>
+        <f>C6</f>
+        <v>1.1930999755859375</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1.2631000280380249</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.2481000423431396</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.2431000471115112</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.2394000291824341</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.2372000217437744</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1.2319999933242798</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.2265000343322754</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1.2236000299453735</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.2210999727249146</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1.2196999788284302</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1.2196999788284302</v>
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <f>B4</f>
+        <v>1.1699999570846558</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:L6" si="0">C4</f>
+        <v>1.1930999755859375</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2043000459671021</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2177000045776367</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2351000308990479</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2512999773025513</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2669999599456787</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2908999919891357</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3113000392913818</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3306000232696533</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3495999574661255</v>
       </c>
       <c r="N6" s="2">
         <v>6</v>
       </c>
       <c r="O6" s="2">
-        <v>-7.1299990018208748E-2</v>
+        <f>D6</f>
+        <v>1.2043000459671021</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1.3035000562667847</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.274399995803833</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.2710000276565552</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.2699999809265137</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.2632999420166016</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.2594000101089478</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1.2576999664306641</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1.2576999664306641</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.2561999559402466</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1.2575000524520874</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1.2587000131607056</v>
-      </c>
       <c r="N7" s="2">
         <v>9</v>
       </c>
       <c r="O7" s="2">
-        <v>-5.590001742045092E-2</v>
+        <f>E6</f>
+        <v>1.2177000045776367</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2">
-        <f>B4-(AVERAGE(B5:B7))</f>
-        <v>-0.12266675631205248</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" ref="C8:L8" si="0">C4-(AVERAGE(C5:C7))</f>
-        <v>-8.5666696230570549E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>-7.1299990018208748E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>-5.590001742045092E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>-3.4666617711385017E-2</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.4400005340576172E-2</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="0"/>
-        <v>4.799962043762207E-3</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0066649119059319E-2</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="0"/>
-        <v>5.2533388137817383E-2</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="0"/>
-        <v>7.1466684341430664E-2</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="0"/>
-        <v>9.1233293215433831E-2</v>
-      </c>
       <c r="N8" s="2">
         <v>12</v>
       </c>
       <c r="O8" s="2">
-        <v>-3.4666617711385017E-2</v>
+        <f>F6</f>
+        <v>1.2351000308990479</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -9892,7 +10350,8 @@
         <v>15</v>
       </c>
       <c r="O9" s="2">
-        <v>-1.4400005340576172E-2</v>
+        <f>G6</f>
+        <v>1.2512999773025513</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -9900,7 +10359,8 @@
         <v>18</v>
       </c>
       <c r="O10" s="2">
-        <v>4.799962043762207E-3</v>
+        <f>H6</f>
+        <v>1.2669999599456787</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -9908,7 +10368,8 @@
         <v>21</v>
       </c>
       <c r="O11" s="2">
-        <v>3.0066649119059319E-2</v>
+        <f>I6</f>
+        <v>1.2908999919891357</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -9916,7 +10377,8 @@
         <v>24</v>
       </c>
       <c r="O12" s="2">
-        <v>5.2533388137817383E-2</v>
+        <f>J6</f>
+        <v>1.3113000392913818</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -9924,7 +10386,8 @@
         <v>27</v>
       </c>
       <c r="O13" s="2">
-        <v>7.1466684341430664E-2</v>
+        <f>K6</f>
+        <v>1.3306000232696533</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -9932,8 +10395,12 @@
         <v>30</v>
       </c>
       <c r="O14" s="2">
-        <v>9.1233293215433831E-2</v>
-      </c>
+        <f>L6</f>
+        <v>1.3495999574661255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -9976,194 +10443,91 @@
         <v>0</v>
       </c>
       <c r="O19" s="2">
-        <v>-0.14796666304270434</v>
+        <f>B21</f>
+        <v>1.1447000503540039</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1.3114000558853149</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.3137999773025513</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1.3127000331878662</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1.3114000558853149</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1.3087999820709229</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1.3056999444961548</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1.3023999929428101</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1.3012000322341919</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1.2990000247955322</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1.3001999855041504</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1.2967000007629395</v>
-      </c>
       <c r="N20" s="2">
         <v>3</v>
       </c>
       <c r="O20" s="2">
-        <v>-0.11586670080820727</v>
+        <f>C21</f>
+        <v>1.1628999710083008</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1.2631000280380249</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.2481000423431396</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.2431000471115112</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1.2394000291824341</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.2372000217437744</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1.2319999933242798</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1.2265000343322754</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1.2236000299453735</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1.2210999727249146</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1.2196999788284302</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1.2196999788284302</v>
+      <c r="A21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2">
+        <f>B19</f>
+        <v>1.1447000503540039</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" ref="C21:L21" si="1">C19</f>
+        <v>1.1628999710083008</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1782000064849854</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1901999711990356</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2156000137329102</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2425999641418457</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2647000551223755</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2879999876022339</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3116999864578247</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3359999656677246</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3568999767303467</v>
       </c>
       <c r="N21" s="2">
         <v>6</v>
       </c>
       <c r="O21" s="2">
-        <v>-9.7400029500325447E-2</v>
+        <f>D21</f>
+        <v>1.1782000064849854</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1.3035000562667847</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.274399995803833</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1.2710000276565552</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1.2699999809265137</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1.2632999420166016</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1.2594000101089478</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1.2576999664306641</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1.2576999664306641</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1.2561999559402466</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1.2575000524520874</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1.2587000131607056</v>
-      </c>
       <c r="N22" s="2">
         <v>9</v>
       </c>
       <c r="O22" s="2">
-        <v>-8.3400050799051995E-2</v>
+        <f>E21</f>
+        <v>1.1901999711990356</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <f>B19-(AVERAGE(B20:B22))</f>
-        <v>-0.14796666304270434</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" ref="C23:L23" si="1">C19-(AVERAGE(C20:C22))</f>
-        <v>-0.11586670080820727</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="1"/>
-        <v>-9.7400029500325447E-2</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="1"/>
-        <v>-8.3400050799051995E-2</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="1"/>
-        <v>-5.4166634877522712E-2</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="1"/>
-        <v>-2.3100018501281738E-2</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="1"/>
-        <v>2.5000572204589844E-3</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7166644732157463E-2</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="1"/>
-        <v>5.2933335304260254E-2</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="1"/>
-        <v>7.6866626739501953E-2</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="1"/>
-        <v>9.8533312479655022E-2</v>
-      </c>
       <c r="N23" s="2">
         <v>12</v>
       </c>
       <c r="O23" s="2">
-        <v>-5.4166634877522712E-2</v>
+        <f>F21</f>
+        <v>1.2156000137329102</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -10171,7 +10535,8 @@
         <v>15</v>
       </c>
       <c r="O24" s="2">
-        <v>-2.3100018501281738E-2</v>
+        <f>G21</f>
+        <v>1.2425999641418457</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -10179,7 +10544,8 @@
         <v>18</v>
       </c>
       <c r="O25" s="2">
-        <v>2.5000572204589844E-3</v>
+        <f>H21</f>
+        <v>1.2647000551223755</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -10187,7 +10553,8 @@
         <v>21</v>
       </c>
       <c r="O26" s="2">
-        <v>2.7166644732157463E-2</v>
+        <f>I21</f>
+        <v>1.2879999876022339</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -10195,7 +10562,8 @@
         <v>24</v>
       </c>
       <c r="O27" s="2">
-        <v>5.2933335304260254E-2</v>
+        <f>J21</f>
+        <v>1.3116999864578247</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -10203,7 +10571,8 @@
         <v>27</v>
       </c>
       <c r="O28" s="2">
-        <v>7.6866626739501953E-2</v>
+        <f>K21</f>
+        <v>1.3359999656677246</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -10211,7 +10580,8 @@
         <v>30</v>
       </c>
       <c r="O29" s="2">
-        <v>9.8533312479655022E-2</v>
+        <f>L21</f>
+        <v>1.3568999767303467</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -10255,194 +10625,91 @@
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <v>-0.11666671435038256</v>
+        <f>B37</f>
+        <v>1.1759999990463257</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1.3114000558853149</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1.3137999773025513</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1.3127000331878662</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1.3114000558853149</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1.3087999820709229</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1.3056999444961548</v>
-      </c>
-      <c r="H36" s="1">
-        <v>1.3023999929428101</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1.3012000322341919</v>
-      </c>
-      <c r="J36" s="1">
-        <v>1.2990000247955322</v>
-      </c>
-      <c r="K36" s="1">
-        <v>1.3001999855041504</v>
-      </c>
-      <c r="L36" s="1">
-        <v>1.2967000007629395</v>
-      </c>
       <c r="N36" s="2">
         <v>3</v>
       </c>
       <c r="O36" s="2">
-        <v>-7.4366728464762444E-2</v>
+        <f>C37</f>
+        <v>1.2043999433517456</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1.2631000280380249</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1.2481000423431396</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1.2431000471115112</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1.2394000291824341</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1.2372000217437744</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1.2319999933242798</v>
-      </c>
-      <c r="H37" s="1">
-        <v>1.2265000343322754</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1.2236000299453735</v>
-      </c>
-      <c r="J37" s="1">
-        <v>1.2210999727249146</v>
-      </c>
-      <c r="K37" s="1">
-        <v>1.2196999788284302</v>
-      </c>
-      <c r="L37" s="1">
-        <v>1.2196999788284302</v>
+      <c r="A37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2">
+        <f>B35</f>
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" ref="C37:L37" si="2">C35</f>
+        <v>1.2043999433517456</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2353999614715576</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2582000494003296</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2883000373840332</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3128000497817993</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3415999412536621</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3675999641418457</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3933999538421631</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4143999814987183</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.440000057220459</v>
       </c>
       <c r="N37" s="2">
         <v>6</v>
       </c>
       <c r="O37" s="2">
-        <v>-4.0200074513753181E-2</v>
+        <f>D37</f>
+        <v>1.2353999614715576</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1.3035000562667847</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1.274399995803833</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1.2710000276565552</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1.2699999809265137</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1.2632999420166016</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1.2594000101089478</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1.2576999664306641</v>
-      </c>
-      <c r="I38" s="1">
-        <v>1.2576999664306641</v>
-      </c>
-      <c r="J38" s="1">
-        <v>1.2561999559402466</v>
-      </c>
-      <c r="K38" s="1">
-        <v>1.2575000524520874</v>
-      </c>
-      <c r="L38" s="1">
-        <v>1.2587000131607056</v>
-      </c>
       <c r="N38" s="2">
         <v>9</v>
       </c>
       <c r="O38" s="2">
-        <v>-1.5399972597758049E-2</v>
+        <f>E37</f>
+        <v>1.2582000494003296</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="2">
-        <f>B35-(AVERAGE(B36:B38))</f>
-        <v>-0.11666671435038256</v>
-      </c>
-      <c r="C39" s="2">
-        <f t="shared" ref="C39:L39" si="2">C35-(AVERAGE(C36:C38))</f>
-        <v>-7.4366728464762444E-2</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="2"/>
-        <v>-4.0200074513753181E-2</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="2"/>
-        <v>-1.5399972597758049E-2</v>
-      </c>
-      <c r="F39" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8533388773600334E-2</v>
-      </c>
-      <c r="G39" s="2">
-        <f t="shared" si="2"/>
-        <v>4.7100067138671875E-2</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="2"/>
-        <v>7.9399943351745605E-2</v>
-      </c>
-      <c r="I39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.10676662127176928</v>
-      </c>
-      <c r="J39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.13463330268859863</v>
-      </c>
-      <c r="K39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.15526664257049561</v>
-      </c>
-      <c r="L39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18163339296976733</v>
-      </c>
       <c r="N39" s="2">
         <v>12</v>
       </c>
       <c r="O39" s="2">
-        <v>1.8533388773600334E-2</v>
+        <f>F37</f>
+        <v>1.2883000373840332</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -10450,7 +10717,8 @@
         <v>15</v>
       </c>
       <c r="O40" s="2">
-        <v>4.7100067138671875E-2</v>
+        <f>G37</f>
+        <v>1.3128000497817993</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -10458,7 +10726,8 @@
         <v>18</v>
       </c>
       <c r="O41" s="2">
-        <v>7.9399943351745605E-2</v>
+        <f>H37</f>
+        <v>1.3415999412536621</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -10466,7 +10735,8 @@
         <v>21</v>
       </c>
       <c r="O42" s="2">
-        <v>0.10676662127176928</v>
+        <f>I37</f>
+        <v>1.3675999641418457</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -10475,7 +10745,8 @@
         <v>24</v>
       </c>
       <c r="O43" s="2">
-        <v>0.13463330268859863</v>
+        <f>J37</f>
+        <v>1.3933999538421631</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -10483,7 +10754,8 @@
         <v>27</v>
       </c>
       <c r="O44" s="2">
-        <v>0.15526664257049561</v>
+        <f>K37</f>
+        <v>1.4143999814987183</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -10491,7 +10763,8 @@
         <v>30</v>
       </c>
       <c r="O45" s="2">
-        <v>0.18163339296976733</v>
+        <f>L37</f>
+        <v>1.440000057220459</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -10535,194 +10808,91 @@
         <v>0</v>
       </c>
       <c r="O51" s="2">
-        <v>-0.17256669203440356</v>
+        <f>B53</f>
+        <v>1.1201000213623047</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="1">
-        <v>1.3114000558853149</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1.3137999773025513</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1.3127000331878662</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1.3114000558853149</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1.3087999820709229</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1.3056999444961548</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1.3023999929428101</v>
-      </c>
-      <c r="I52" s="1">
-        <v>1.3012000322341919</v>
-      </c>
-      <c r="J52" s="1">
-        <v>1.2990000247955322</v>
-      </c>
-      <c r="K52" s="1">
-        <v>1.3001999855041504</v>
-      </c>
-      <c r="L52" s="1">
-        <v>1.2967000007629395</v>
-      </c>
       <c r="N52" s="2">
         <v>3</v>
       </c>
       <c r="O52" s="2">
-        <v>-0.1378666559855144</v>
+        <f>C53</f>
+        <v>1.1409000158309937</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="1">
-        <v>1.2631000280380249</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1.2481000423431396</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1.2431000471115112</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1.2394000291824341</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1.2372000217437744</v>
-      </c>
-      <c r="G53" s="1">
-        <v>1.2319999933242798</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1.2265000343322754</v>
-      </c>
-      <c r="I53" s="1">
-        <v>1.2236000299453735</v>
-      </c>
-      <c r="J53" s="1">
-        <v>1.2210999727249146</v>
-      </c>
-      <c r="K53" s="1">
-        <v>1.2196999788284302</v>
-      </c>
-      <c r="L53" s="1">
-        <v>1.2196999788284302</v>
+      <c r="A53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2">
+        <f>B51</f>
+        <v>1.1201000213623047</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" ref="C53:L53" si="3">C51</f>
+        <v>1.1409000158309937</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.149899959564209</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1734999418258667</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2035000324249268</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.218999981880188</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2416000366210937</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2635999917984009</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2831000089645386</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3013999462127686</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.319100022315979</v>
       </c>
       <c r="N53" s="2">
         <v>6</v>
       </c>
       <c r="O53" s="2">
-        <v>-0.12570007642110181</v>
+        <f>D53</f>
+        <v>1.149899959564209</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="1">
-        <v>1.3035000562667847</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1.274399995803833</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1.2710000276565552</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1.2699999809265137</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1.2632999420166016</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1.2594000101089478</v>
-      </c>
-      <c r="H54" s="1">
-        <v>1.2576999664306641</v>
-      </c>
-      <c r="I54" s="1">
-        <v>1.2576999664306641</v>
-      </c>
-      <c r="J54" s="1">
-        <v>1.2561999559402466</v>
-      </c>
-      <c r="K54" s="1">
-        <v>1.2575000524520874</v>
-      </c>
-      <c r="L54" s="1">
-        <v>1.2587000131607056</v>
-      </c>
       <c r="N54" s="2">
         <v>9</v>
       </c>
       <c r="O54" s="2">
-        <v>-0.10010008017222094</v>
+        <f>E53</f>
+        <v>1.1734999418258667</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="2">
-        <f>B51-(AVERAGE(B52:B54))</f>
-        <v>-0.17256669203440356</v>
-      </c>
-      <c r="C55" s="2">
-        <f t="shared" ref="C55:L55" si="3">C51-(AVERAGE(C52:C54))</f>
-        <v>-0.1378666559855144</v>
-      </c>
-      <c r="D55" s="2">
-        <f t="shared" si="3"/>
-        <v>-0.12570007642110181</v>
-      </c>
-      <c r="E55" s="2">
-        <f t="shared" si="3"/>
-        <v>-0.10010008017222094</v>
-      </c>
-      <c r="F55" s="2">
-        <f t="shared" si="3"/>
-        <v>-6.6266616185506111E-2</v>
-      </c>
-      <c r="G55" s="2">
-        <f t="shared" si="3"/>
-        <v>-4.6700000762939453E-2</v>
-      </c>
-      <c r="H55" s="2">
-        <f t="shared" si="3"/>
-        <v>-2.0599961280822754E-2</v>
-      </c>
-      <c r="I55" s="2">
-        <f t="shared" si="3"/>
-        <v>2.7666489283244555E-3</v>
-      </c>
-      <c r="J55" s="2">
-        <f t="shared" si="3"/>
-        <v>2.4333357810974121E-2</v>
-      </c>
-      <c r="K55" s="2">
-        <f t="shared" si="3"/>
-        <v>4.2266607284545898E-2</v>
-      </c>
-      <c r="L55" s="2">
-        <f t="shared" si="3"/>
-        <v>6.0733358065287346E-2</v>
-      </c>
       <c r="N55" s="2">
         <v>12</v>
       </c>
       <c r="O55" s="2">
-        <v>-6.6266616185506111E-2</v>
+        <f>F53</f>
+        <v>1.2035000324249268</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -10730,7 +10900,8 @@
         <v>15</v>
       </c>
       <c r="O56" s="2">
-        <v>-4.6700000762939453E-2</v>
+        <f>G53</f>
+        <v>1.218999981880188</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -10738,7 +10909,8 @@
         <v>18</v>
       </c>
       <c r="O57" s="2">
-        <v>-2.0599961280822754E-2</v>
+        <f>H53</f>
+        <v>1.2416000366210937</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -10746,7 +10918,8 @@
         <v>21</v>
       </c>
       <c r="O58" s="2">
-        <v>2.7666489283244555E-3</v>
+        <f>I53</f>
+        <v>1.2635999917984009</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -10754,7 +10927,8 @@
         <v>24</v>
       </c>
       <c r="O59" s="2">
-        <v>2.4333357810974121E-2</v>
+        <f>J53</f>
+        <v>1.2831000089645386</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -10762,7 +10936,8 @@
         <v>27</v>
       </c>
       <c r="O60" s="2">
-        <v>4.2266607284545898E-2</v>
+        <f>K53</f>
+        <v>1.3013999462127686</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -10770,7 +10945,8 @@
         <v>30</v>
       </c>
       <c r="O61" s="2">
-        <v>6.0733358065287346E-2</v>
+        <f>L53</f>
+        <v>1.319100022315979</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -10814,194 +10990,91 @@
         <v>0</v>
       </c>
       <c r="O68" s="2">
-        <v>-8.9166680971781487E-2</v>
+        <f>B70</f>
+        <v>1.2035000324249268</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B69" s="1">
-        <v>1.3114000558853149</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1.3137999773025513</v>
-      </c>
-      <c r="D69" s="1">
-        <v>1.3127000331878662</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1.3114000558853149</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1.3087999820709229</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1.3056999444961548</v>
-      </c>
-      <c r="H69" s="1">
-        <v>1.3023999929428101</v>
-      </c>
-      <c r="I69" s="1">
-        <v>1.3012000322341919</v>
-      </c>
-      <c r="J69" s="1">
-        <v>1.2990000247955322</v>
-      </c>
-      <c r="K69" s="1">
-        <v>1.3001999855041504</v>
-      </c>
-      <c r="L69" s="1">
-        <v>1.2967000007629395</v>
-      </c>
       <c r="N69" s="2">
         <v>3</v>
       </c>
       <c r="O69" s="2">
-        <v>-4.1666666666666741E-2</v>
+        <f>C70</f>
+        <v>1.2371000051498413</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70" s="1">
-        <v>1.2631000280380249</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1.2481000423431396</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1.2431000471115112</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1.2394000291824341</v>
-      </c>
-      <c r="F70" s="1">
-        <v>1.2372000217437744</v>
-      </c>
-      <c r="G70" s="1">
-        <v>1.2319999933242798</v>
-      </c>
-      <c r="H70" s="1">
-        <v>1.2265000343322754</v>
-      </c>
-      <c r="I70" s="1">
-        <v>1.2236000299453735</v>
-      </c>
-      <c r="J70" s="1">
-        <v>1.2210999727249146</v>
-      </c>
-      <c r="K70" s="1">
-        <v>1.2196999788284302</v>
-      </c>
-      <c r="L70" s="1">
-        <v>1.2196999788284302</v>
+      <c r="A70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2">
+        <f>B68</f>
+        <v>1.2035000324249268</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" ref="C70:L70" si="4">C68</f>
+        <v>1.2371000051498413</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2427999973297119</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2568000555038452</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2813999652862549</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2969000339508057</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3167999982833862</v>
+      </c>
+      <c r="I70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3395999670028687</v>
+      </c>
+      <c r="J70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3573000431060791</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3762999773025513</v>
+      </c>
+      <c r="L70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3932000398635864</v>
       </c>
       <c r="N70" s="2">
         <v>6</v>
       </c>
       <c r="O70" s="2">
-        <v>-3.2800038655598884E-2</v>
+        <f>D70</f>
+        <v>1.2427999973297119</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B71" s="1">
-        <v>1.3035000562667847</v>
-      </c>
-      <c r="C71" s="1">
-        <v>1.274399995803833</v>
-      </c>
-      <c r="D71" s="1">
-        <v>1.2710000276565552</v>
-      </c>
-      <c r="E71" s="1">
-        <v>1.2699999809265137</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1.2632999420166016</v>
-      </c>
-      <c r="G71" s="1">
-        <v>1.2594000101089478</v>
-      </c>
-      <c r="H71" s="1">
-        <v>1.2576999664306641</v>
-      </c>
-      <c r="I71" s="1">
-        <v>1.2576999664306641</v>
-      </c>
-      <c r="J71" s="1">
-        <v>1.2561999559402466</v>
-      </c>
-      <c r="K71" s="1">
-        <v>1.2575000524520874</v>
-      </c>
-      <c r="L71" s="1">
-        <v>1.2587000131607056</v>
-      </c>
       <c r="N71" s="2">
         <v>9</v>
       </c>
       <c r="O71" s="2">
-        <v>-1.6799966494242424E-2</v>
+        <f>E70</f>
+        <v>1.2568000555038452</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="2">
-        <f>B68-(AVERAGE(B69:B71))</f>
-        <v>-8.9166680971781487E-2</v>
-      </c>
-      <c r="C72" s="2">
-        <f t="shared" ref="C72:L72" si="4">C68-(AVERAGE(C69:C71))</f>
-        <v>-4.1666666666666741E-2</v>
-      </c>
-      <c r="D72" s="2">
-        <f t="shared" si="4"/>
-        <v>-3.2800038655598884E-2</v>
-      </c>
-      <c r="E72" s="2">
-        <f t="shared" si="4"/>
-        <v>-1.6799966494242424E-2</v>
-      </c>
-      <c r="F72" s="2">
-        <f t="shared" si="4"/>
-        <v>1.1633316675822014E-2</v>
-      </c>
-      <c r="G72" s="2">
-        <f t="shared" si="4"/>
-        <v>3.1200051307678223E-2</v>
-      </c>
-      <c r="H72" s="2">
-        <f t="shared" si="4"/>
-        <v>5.4600000381469727E-2</v>
-      </c>
-      <c r="I72" s="2">
-        <f t="shared" si="4"/>
-        <v>7.8766624132792229E-2</v>
-      </c>
-      <c r="J72" s="2">
-        <f t="shared" si="4"/>
-        <v>9.8533391952514648E-2</v>
-      </c>
-      <c r="K72" s="2">
-        <f t="shared" si="4"/>
-        <v>0.11716663837432861</v>
-      </c>
-      <c r="L72" s="2">
-        <f t="shared" si="4"/>
-        <v>0.13483337561289477</v>
-      </c>
       <c r="N72" s="2">
         <v>12</v>
       </c>
       <c r="O72" s="2">
-        <v>1.1633316675822014E-2</v>
+        <f>F70</f>
+        <v>1.2813999652862549</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -11009,7 +11082,8 @@
         <v>15</v>
       </c>
       <c r="O73" s="2">
-        <v>3.1200051307678223E-2</v>
+        <f>G70</f>
+        <v>1.2969000339508057</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -11017,7 +11091,8 @@
         <v>18</v>
       </c>
       <c r="O74" s="2">
-        <v>5.4600000381469727E-2</v>
+        <f>H70</f>
+        <v>1.3167999982833862</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -11025,7 +11100,8 @@
         <v>21</v>
       </c>
       <c r="O75" s="2">
-        <v>7.8766624132792229E-2</v>
+        <f>I70</f>
+        <v>1.3395999670028687</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -11033,7 +11109,8 @@
         <v>24</v>
       </c>
       <c r="O76" s="2">
-        <v>9.8533391952514648E-2</v>
+        <f>J70</f>
+        <v>1.3573000431060791</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -11041,7 +11118,8 @@
         <v>27</v>
       </c>
       <c r="O77" s="2">
-        <v>0.11716663837432861</v>
+        <f>K70</f>
+        <v>1.3762999773025513</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -11049,7 +11127,8 @@
         <v>30</v>
       </c>
       <c r="O78" s="2">
-        <v>0.13483337561289477</v>
+        <f>L70</f>
+        <v>1.3932000398635864</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -11093,194 +11172,91 @@
         <v>0</v>
       </c>
       <c r="O85" s="2">
-        <v>-3.4266750017801995E-2</v>
+        <f>B87</f>
+        <v>1.2583999633789062</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B86" s="1">
-        <v>1.3114000558853149</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1.3137999773025513</v>
-      </c>
-      <c r="D86" s="1">
-        <v>1.3127000331878662</v>
-      </c>
-      <c r="E86" s="1">
-        <v>1.3114000558853149</v>
-      </c>
-      <c r="F86" s="1">
-        <v>1.3087999820709229</v>
-      </c>
-      <c r="G86" s="1">
-        <v>1.3056999444961548</v>
-      </c>
-      <c r="H86" s="1">
-        <v>1.3023999929428101</v>
-      </c>
-      <c r="I86" s="1">
-        <v>1.3012000322341919</v>
-      </c>
-      <c r="J86" s="1">
-        <v>1.2990000247955322</v>
-      </c>
-      <c r="K86" s="1">
-        <v>1.3001999855041504</v>
-      </c>
-      <c r="L86" s="1">
-        <v>1.2967000007629395</v>
-      </c>
       <c r="N86" s="2">
         <v>3</v>
       </c>
       <c r="O86" s="2">
-        <v>-5.7666699091594165E-3</v>
+        <f>C87</f>
+        <v>1.2730000019073486</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B87" s="1">
-        <v>1.2631000280380249</v>
-      </c>
-      <c r="C87" s="1">
-        <v>1.2481000423431396</v>
-      </c>
-      <c r="D87" s="1">
-        <v>1.2431000471115112</v>
-      </c>
-      <c r="E87" s="1">
-        <v>1.2394000291824341</v>
-      </c>
-      <c r="F87" s="1">
-        <v>1.2372000217437744</v>
-      </c>
-      <c r="G87" s="1">
-        <v>1.2319999933242798</v>
-      </c>
-      <c r="H87" s="1">
-        <v>1.2265000343322754</v>
-      </c>
-      <c r="I87" s="1">
-        <v>1.2236000299453735</v>
-      </c>
-      <c r="J87" s="1">
-        <v>1.2210999727249146</v>
-      </c>
-      <c r="K87" s="1">
-        <v>1.2196999788284302</v>
-      </c>
-      <c r="L87" s="1">
-        <v>1.2196999788284302</v>
+      <c r="A87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="2">
+        <f>B85</f>
+        <v>1.2583999633789062</v>
+      </c>
+      <c r="C87" s="2">
+        <f t="shared" ref="C87:L87" si="5">C85</f>
+        <v>1.2730000019073486</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.2698999643325806</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.2605999708175659</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.2366000413894653</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.2581000328063965</v>
+      </c>
+      <c r="H87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3098000288009644</v>
+      </c>
+      <c r="I87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3478000164031982</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3792999982833862</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.406999945640564</v>
+      </c>
+      <c r="L87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4319000244140625</v>
       </c>
       <c r="N87" s="2">
         <v>6</v>
       </c>
       <c r="O87" s="2">
-        <v>-5.700071652730232E-3</v>
+        <f>D87</f>
+        <v>1.2698999643325806</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B88" s="1">
-        <v>1.3035000562667847</v>
-      </c>
-      <c r="C88" s="1">
-        <v>1.274399995803833</v>
-      </c>
-      <c r="D88" s="1">
-        <v>1.2710000276565552</v>
-      </c>
-      <c r="E88" s="1">
-        <v>1.2699999809265137</v>
-      </c>
-      <c r="F88" s="1">
-        <v>1.2632999420166016</v>
-      </c>
-      <c r="G88" s="1">
-        <v>1.2594000101089478</v>
-      </c>
-      <c r="H88" s="1">
-        <v>1.2576999664306641</v>
-      </c>
-      <c r="I88" s="1">
-        <v>1.2576999664306641</v>
-      </c>
-      <c r="J88" s="1">
-        <v>1.2561999559402466</v>
-      </c>
-      <c r="K88" s="1">
-        <v>1.2575000524520874</v>
-      </c>
-      <c r="L88" s="1">
-        <v>1.2587000131607056</v>
-      </c>
       <c r="N88" s="2">
         <v>9</v>
       </c>
       <c r="O88" s="2">
-        <v>-1.3000051180521721E-2</v>
+        <f>E87</f>
+        <v>1.2605999708175659</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="2">
-        <f>B85-(AVERAGE(B86:B88))</f>
-        <v>-3.4266750017801995E-2</v>
-      </c>
-      <c r="C89" s="2">
-        <f t="shared" ref="C89:L89" si="5">C85-(AVERAGE(C86:C88))</f>
-        <v>-5.7666699091594165E-3</v>
-      </c>
-      <c r="D89" s="2">
-        <f t="shared" si="5"/>
-        <v>-5.700071652730232E-3</v>
-      </c>
-      <c r="E89" s="2">
-        <f t="shared" si="5"/>
-        <v>-1.3000051180521721E-2</v>
-      </c>
-      <c r="F89" s="2">
-        <f t="shared" si="5"/>
-        <v>-3.3166607220967537E-2</v>
-      </c>
-      <c r="G89" s="2">
-        <f t="shared" si="5"/>
-        <v>-7.599949836730957E-3</v>
-      </c>
-      <c r="H89" s="2">
-        <f t="shared" si="5"/>
-        <v>4.7600030899047852E-2</v>
-      </c>
-      <c r="I89" s="2">
-        <f t="shared" si="5"/>
-        <v>8.6966673533121819E-2</v>
-      </c>
-      <c r="J89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.12053334712982178</v>
-      </c>
-      <c r="K89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.14786660671234131</v>
-      </c>
-      <c r="L89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.17353336016337084</v>
-      </c>
       <c r="N89" s="2">
         <v>12</v>
       </c>
       <c r="O89" s="2">
-        <v>-3.3166607220967537E-2</v>
+        <f>F87</f>
+        <v>1.2366000413894653</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -11288,7 +11264,8 @@
         <v>15</v>
       </c>
       <c r="O90" s="2">
-        <v>-7.599949836730957E-3</v>
+        <f>G87</f>
+        <v>1.2581000328063965</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -11296,7 +11273,8 @@
         <v>18</v>
       </c>
       <c r="O91" s="2">
-        <v>4.7600030899047852E-2</v>
+        <f>H87</f>
+        <v>1.3098000288009644</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -11304,7 +11282,8 @@
         <v>21</v>
       </c>
       <c r="O92" s="2">
-        <v>8.6966673533121819E-2</v>
+        <f>I87</f>
+        <v>1.3478000164031982</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -11312,7 +11291,8 @@
         <v>24</v>
       </c>
       <c r="O93" s="2">
-        <v>0.12053334712982178</v>
+        <f>J87</f>
+        <v>1.3792999982833862</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -11320,7 +11300,8 @@
         <v>27</v>
       </c>
       <c r="O94" s="2">
-        <v>0.14786660671234131</v>
+        <f>K87</f>
+        <v>1.406999945640564</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
@@ -11328,7 +11309,8 @@
         <v>30</v>
       </c>
       <c r="O95" s="2">
-        <v>0.17353336016337084</v>
+        <f>L87</f>
+        <v>1.4319000244140625</v>
       </c>
     </row>
   </sheetData>
@@ -11342,8 +11324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11404,28 +11386,28 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>6.8999999999999999E-3</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="E3" s="1">
         <v>1E-4</v>
       </c>
       <c r="F3" s="1">
         <f>D3-E3</f>
-        <v>6.7999999999999996E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="G3" s="1">
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="H3" s="1">
         <f>F3/G3</f>
-        <v>0.11056910569105691</v>
+        <v>9.4308943089430886E-2</v>
       </c>
       <c r="I3" s="7">
         <v>67.88807461692204</v>
       </c>
       <c r="J3" s="7">
         <f>(H3*60*50000*100)/(1000*50*0.6*I3)</f>
-        <v>16.286970327995725</v>
+        <v>13.891827632702235</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -11435,28 +11417,28 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>8.3000000000000001E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="E4" s="1">
         <v>1E-4</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:F5" si="0">D4-E4</f>
-        <v>8.2000000000000007E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="G4" s="1">
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ref="H4:H5" si="1">F4/G4</f>
-        <v>0.13333333333333336</v>
+        <v>0.11707317073170731</v>
       </c>
       <c r="I4" s="7">
         <v>67.88807461692204</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" ref="J4:J5" si="2">(H4*60*50000*100)/(1000*50*0.6*I4)</f>
-        <v>19.640170101406618</v>
+        <v>17.245027406113117</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -11466,28 +11448,28 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>9.7999999999999997E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="E5" s="1">
         <v>1E-4</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>9.7000000000000003E-3</v>
+        <v>8.7000000000000011E-3</v>
       </c>
       <c r="G5" s="1">
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>0.15772357723577238</v>
+        <v>0.14146341463414636</v>
       </c>
       <c r="I5" s="7">
         <v>67.88807461692204</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" si="2"/>
-        <v>23.232884144346844</v>
+        <v>20.837741449053354</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -11497,28 +11479,28 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>7.7999999999999996E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="E6" s="1">
         <v>1E-4</v>
       </c>
       <c r="F6" s="1">
         <f>D6-E6</f>
-        <v>7.6999999999999994E-3</v>
+        <v>6.6999999999999994E-3</v>
       </c>
       <c r="G6" s="1">
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="H6" s="1">
         <f>F6/G6</f>
-        <v>0.12520325203252031</v>
+        <v>0.1089430894308943</v>
       </c>
       <c r="I6" s="7">
         <v>67.88807461692204</v>
       </c>
       <c r="J6" s="7">
         <f>(H6*60*50000*100)/(1000*50*0.6*I6)</f>
-        <v>18.442598753759864</v>
+        <v>16.047456058466373</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -11528,28 +11510,28 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>7.1999999999999998E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="E7" s="1">
         <v>1E-4</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ref="F7:F8" si="3">D7-E7</f>
-        <v>7.0999999999999995E-3</v>
+        <v>6.0999999999999995E-3</v>
       </c>
       <c r="G7" s="1">
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" ref="H7:H8" si="4">F7/G7</f>
-        <v>0.11544715447154472</v>
+        <v>9.9186991869918695E-2</v>
       </c>
       <c r="I7" s="7">
         <v>67.88807461692204</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ref="J7:J8" si="5">(H7*60*50000*100)/(1000*50*0.6*I7)</f>
-        <v>17.005513136583772</v>
+        <v>14.610370441290282</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -11559,28 +11541,28 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>7.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E8" s="1">
         <v>1E-4</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="3"/>
-        <v>6.8999999999999999E-3</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="G8" s="1">
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="4"/>
-        <v>0.11219512195121951</v>
+        <v>9.5934959349593493E-2</v>
       </c>
       <c r="I8" s="7">
         <v>67.88807461692204</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="5"/>
-        <v>16.526484597525076</v>
+        <v>14.131341902231586</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
